--- a/数据整理/stocks/其他/COP-康菲石油.xlsx
+++ b/数据整理/stocks/其他/COP-康菲石油.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8924</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8924</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8275</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8275</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3274</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3274</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/COP-康菲石油.xlsx
+++ b/数据整理/stocks/其他/COP-康菲石油.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8117</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8117</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6873</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6873</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2622</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2622</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011706</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000049</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银标普全球精选自然资源等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/COP-康菲石油.xlsx
+++ b/数据整理/stocks/其他/COP-康菲石油.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1657,4 +1658,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/COP-康菲石油.xlsx
+++ b/数据整理/stocks/其他/COP-康菲石油.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.77</v>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.18</v>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4210</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.92</v>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1745,13 +1832,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.71</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/COP-康菲石油.xlsx
+++ b/数据整理/stocks/其他/COP-康菲石油.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1913,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1924,17 +1925,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1944,14 +1965,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.85</v>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2332</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1960,14 +2003,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.77</v>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2332</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1976,14 +2041,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.18</v>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7161</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1992,14 +2079,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.92</v>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7161</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2008,13 +2117,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.71</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/COP-康菲石油.xlsx
+++ b/数据整理/stocks/其他/COP-康菲石油.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2160,7 +2161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2171,17 +2172,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2191,14 +2212,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.03</v>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4400</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2207,14 +2250,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.85</v>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4400</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2223,14 +2288,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.77</v>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>16.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1237</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2239,14 +2326,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.18</v>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1237</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2255,14 +2364,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.92</v>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2271,13 +2402,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.359999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.71</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/COP-康菲石油.xlsx
+++ b/数据整理/stocks/其他/COP-康菲石油.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>9.359999999999999</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6.03</v>
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.85</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>3.77</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>4.18</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>2.92</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.71</v>
       </c>
     </row>
@@ -600,6 +617,364 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0105</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0105</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0147</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000049</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银标普全球精选自然资源等权重指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016334</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银标普全球精选自然资源等权重指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-11.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-2.0122</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -875,252 +1250,6 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006679</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>15.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2332</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162719</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>15.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.2332</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>15.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7161</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>15.14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7161</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160416</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.08</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1328</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1186,32 +1315,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>16.84</t>
+          <t>15.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7292</t>
+          <t>2.2332</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1224,32 +1353,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>16.84</t>
+          <t>15.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4210</t>
+          <t>2.2332</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1272,22 +1401,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>16.84</t>
+          <t>15.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2863</t>
+          <t>0.7161</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1310,22 +1439,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>16.84</t>
+          <t>15.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2863</t>
+          <t>0.7161</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1348,22 +1477,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>95.08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1248</t>
+          <t>0.1328</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1376,6 +1505,252 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4210</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1849,7 +2224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2171,7 +2546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2379,7 +2754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/COP-康菲石油.xlsx
+++ b/数据整理/stocks/其他/COP-康菲石油.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>3.13</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>9.359999999999999</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>6.03</v>
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.85</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3.77</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>4.18</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>2.92</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
         <v>1.71</v>
       </c>
     </row>
@@ -616,7 +633,765 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5584</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5584</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9000</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝油气（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0421</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9324</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝油气（QDII）人民币 C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5805</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝油气（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4616</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013404</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>096001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011706</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-11.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>16.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-1.9000</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -974,7 +1749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1250,252 +2025,6 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006679</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>15.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2332</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162719</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>15.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.2332</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>15.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7161</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>15.14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7161</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160416</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.08</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1328</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1561,32 +2090,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>16.84</t>
+          <t>15.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7292</t>
+          <t>2.2332</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1599,32 +2128,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>16.84</t>
+          <t>15.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4210</t>
+          <t>2.2332</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1647,22 +2176,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>16.84</t>
+          <t>15.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2863</t>
+          <t>0.7161</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1685,22 +2214,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>16.84</t>
+          <t>15.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2863</t>
+          <t>0.7161</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1723,22 +2252,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>95.08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1248</t>
+          <t>0.1328</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1751,6 +2280,252 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4210</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2224,7 +2999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2546,7 +3321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2752,212 +3527,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006679</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>12.30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5584</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162719</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>12.30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5584</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>12.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2964</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>12.30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2964</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>